--- a/finalp/src/main/webapp/resources/db/gift_in_items.xlsx
+++ b/finalp/src/main/webapp/resources/db/gift_in_items.xlsx
@@ -3542,6 +3542,81 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>1521898552158</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1521898591370</t>
+        </is>
+      </c>
+      <c r="C232" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>1521898602893</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1521898591370</t>
+        </is>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>1521898614718</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1521898591370</t>
+        </is>
+      </c>
+      <c r="C234" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>1521898627930</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1521898591370</t>
+        </is>
+      </c>
+      <c r="C235" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>1521898640604</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1521898591370</t>
+        </is>
+      </c>
+      <c r="C236" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/finalp/src/main/webapp/resources/db/gift_in_items.xlsx
+++ b/finalp/src/main/webapp/resources/db/gift_in_items.xlsx
@@ -3617,6 +3617,651 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>1521923961003</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1521923993911</t>
+        </is>
+      </c>
+      <c r="C237" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>1521924069202</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1521924007013</t>
+        </is>
+      </c>
+      <c r="C238" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>1521924080533</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1521924021697</t>
+        </is>
+      </c>
+      <c r="C239" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>1521924088099</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1521924052383</t>
+        </is>
+      </c>
+      <c r="C240" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>1521924100403</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1521923993911</t>
+        </is>
+      </c>
+      <c r="C241" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>1521924100403</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1521924007013</t>
+        </is>
+      </c>
+      <c r="C242" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>1521924112554</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1521924021697</t>
+        </is>
+      </c>
+      <c r="C243" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>1521924112554</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1521924052383</t>
+        </is>
+      </c>
+      <c r="C244" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>1521924120307</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1521923993911</t>
+        </is>
+      </c>
+      <c r="C245" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>1521924120307</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1521924021697</t>
+        </is>
+      </c>
+      <c r="C246" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>1521924128049</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1521923993911</t>
+        </is>
+      </c>
+      <c r="C247" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>1521924128049</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1521924052383</t>
+        </is>
+      </c>
+      <c r="C248" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>1521924137497</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1521924007013</t>
+        </is>
+      </c>
+      <c r="C249" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>1521924137497</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1521924021697</t>
+        </is>
+      </c>
+      <c r="C250" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>1521924145379</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1521924007013</t>
+        </is>
+      </c>
+      <c r="C251" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>1521924145379</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1521924052383</t>
+        </is>
+      </c>
+      <c r="C252" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>1521924154370</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1521923993911</t>
+        </is>
+      </c>
+      <c r="C253" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>1521924154370</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1521924007013</t>
+        </is>
+      </c>
+      <c r="C254" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>1521924154370</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1521924021697</t>
+        </is>
+      </c>
+      <c r="C255" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>1521924165875</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1521923993911</t>
+        </is>
+      </c>
+      <c r="C256" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>1521924165875</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1521924007013</t>
+        </is>
+      </c>
+      <c r="C257" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>1521924165875</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1521924052383</t>
+        </is>
+      </c>
+      <c r="C258" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>1521924175801</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1521923993911</t>
+        </is>
+      </c>
+      <c r="C259" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>1521924175801</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1521924021697</t>
+        </is>
+      </c>
+      <c r="C260" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>1521924175801</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1521924052383</t>
+        </is>
+      </c>
+      <c r="C261" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>1521924185366</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1521924007013</t>
+        </is>
+      </c>
+      <c r="C262" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>1521924185366</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1521924021697</t>
+        </is>
+      </c>
+      <c r="C263" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>1521924185366</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1521924052383</t>
+        </is>
+      </c>
+      <c r="C264" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>1521924193857</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1521923993911</t>
+        </is>
+      </c>
+      <c r="C265" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>1521924193857</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1521924007013</t>
+        </is>
+      </c>
+      <c r="C266" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>1521924193857</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1521924021697</t>
+        </is>
+      </c>
+      <c r="C267" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>1521924193857</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1521924052383</t>
+        </is>
+      </c>
+      <c r="C268" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>1521924579944</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1521924593983</t>
+        </is>
+      </c>
+      <c r="C269" s="1" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>1521924643208</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1521924593983</t>
+        </is>
+      </c>
+      <c r="C270" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>1521924643208</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1521924627948</t>
+        </is>
+      </c>
+      <c r="C271" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>1521924654138</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1521924593983</t>
+        </is>
+      </c>
+      <c r="C272" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>1521924654138</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1521924610892</t>
+        </is>
+      </c>
+      <c r="C273" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>1521924664243</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1521924593983</t>
+        </is>
+      </c>
+      <c r="C274" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>1521924664243</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1521924610892</t>
+        </is>
+      </c>
+      <c r="C275" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>1521924664243</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1521924627948</t>
+        </is>
+      </c>
+      <c r="C276" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>1521924675935</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1521924593983</t>
+        </is>
+      </c>
+      <c r="C277" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>1521924675935</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1521924610892</t>
+        </is>
+      </c>
+      <c r="C278" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>1521924675935</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1521924627948</t>
+        </is>
+      </c>
+      <c r="C279" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
